--- a/IST-2020.xlsx
+++ b/IST-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIXian\Desktop\dataset\My papers\2020-IST\latex提交文件\提交在线补充材料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LIXian\Desktop\dataset\My papers\2020-IST\latex提交文件\online materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6472E104-EF22-419A-B865-EBA2AD0C18D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECDD0DA-29D7-4829-AE98-81F3821D1D06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{50A5A867-FB96-4BAF-BDB9-F9560CAE758D}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="13800" xr2:uid="{50A5A867-FB96-4BAF-BDB9-F9560CAE758D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,14 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F-positive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F-Negative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>g-mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +75,14 @@
   </si>
   <si>
     <t>AUC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F(InTrace)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F(OutTrace)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,15 +470,15 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="8" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -486,25 +486,25 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,7 +530,7 @@
         <v>0.761786600496278</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -556,7 +556,7 @@
         <v>0.75804529201430282</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -582,7 +582,7 @@
         <v>0.6987012987012986</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -608,7 +608,7 @@
         <v>0.69081500646830529</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -634,7 +634,7 @@
         <v>0.76689976689976691</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -660,7 +660,7 @@
         <v>0.73521850899742924</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
         <v>0.76153846153846161</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
@@ -712,7 +712,7 @@
         <v>0.83530571992110458</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -738,7 +738,7 @@
         <v>0.79695431472081202</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -764,7 +764,7 @@
         <v>0.7151515151515152</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0.75185577942735937</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -816,7 +816,7 @@
         <v>0.78906652913873143</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -842,7 +842,7 @@
         <v>0.75846994535519141</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -868,7 +868,7 @@
         <v>0.80167014613778709</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0.81359423274974252</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -920,7 +920,7 @@
         <v>0.84915084915084915</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -946,7 +946,7 @@
         <v>0.80248190279214049</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -972,7 +972,7 @@
         <v>0.80287474332648867</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -998,7 +998,7 @@
         <v>0.80363223609534606</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0.76019184652278171</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>0.74146341463414644</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0.78331402085747381</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>0.76223776223776218</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>0.76689976689976691</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0.88576779026217223</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>0.90808823529411764</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>0.92169216921692165</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>0.92486583184257598</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>0.93888396811337471</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0.86229819563152899</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0.81352992194275797</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>2</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0.81320590790616865</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>3</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0.86672117743254296</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>0.82121471343028241</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>0.88058489033306253</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>0.7654469106178764</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>0.80263881253435954</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>0.81204684885666489</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>3</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>0.77873070325900517</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>0.78587196467991172</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
